--- a/biology/Médecine/Eosinophilurie/Eosinophilurie.xlsx
+++ b/biology/Médecine/Eosinophilurie/Eosinophilurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éosinophilurie est la présence anormale d'éosinophiles dans les urines.
-Elle peut être mesurée en détectant les niveaux de protéine cationique éosinophile[1].
+Elle peut être mesurée en détectant les niveaux de protéine cationique éosinophile.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Conditions associées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut être associée à une grande variété de conditions, notamment :
 infection urinaire [citation nécessaire]
-troubles rénaux tels que néphrite interstitielle aiguë[2]
-Granulomatose à éosinophiles avec polyangéite[3]
+troubles rénaux tels que néphrite interstitielle aiguë
+Granulomatose à éosinophiles avec polyangéite
 Insuffisance rénale aiguë athéro-embolique
 L’éosinophilurie (&gt; 5 % des leucocytes urinaires) est une constatation fréquente (environ 90%) de la néphrite allergique induite par un antibiotique. Toutefois, les lymphocytes prédominent dans la néphrite interstitielle allergique induite par les AINS. L'éosinophilurie est une caractéristique de l'insuffisance rénale aiguë athéroembolique.[citation nécessaire]
 L'éosinophilurie est rare chez les patients atteints de périartérite noueuse, qui est une polyangite microscopique.[citation nécessaire]
